--- a/Instruction_Analysis/wzl.xlsx
+++ b/Instruction_Analysis/wzl.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\91867\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\91867\Desktop\流水CPU\pipeline-cpu\Instruction_Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A240753B-7B90-4560-B2EF-535E66B9D0BB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A87BDF08-0FF7-4C12-ADB0-A34011A7B61E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="13260" windowHeight="7308" xr2:uid="{6E665FD8-5713-4F00-A2D0-66E80C41094E}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="93">
   <si>
     <t>流水线指令设计</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -216,12 +216,285 @@
     <t>MULTU</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>R型指令</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>slt rd, rs,rt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[15:11]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[25:21]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[20:16]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>101010[special]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>101011[special]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>指令作用为：rd ←（rs&lt;rt），将地址为rs的通用寄存器的值与地址为rt的通用寄存器的值按照有符号数进行比较，如果前者小于后者，那么将1保存到地址为rd的通用寄存器中；反之，将0保存到地址为rd的通用寄存器中。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>指令作用为：rd ←（rs&lt;rt），将地址为rs的通用寄存器的值与地址为rt的通用寄存器的值按照无符号数进行比较，如果前者小于后者，那么将1保存到地址为rd的通用寄存器中；反之，将0保存到地址为rd的通用寄存器中。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sltu rd,rs,rt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有符号值比较</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无符号值比较</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>001010</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>指令作用为：rt ←（rs &lt;（sign_extended）immediate），将指令中的16位立即数进行符号扩展，与地址为rs的通用寄存器的值按照有符号数进行比较，如果前者大于后者，那么将1保存到地址为rt的通用寄存器中；反之，将0保存到地址为rt的通用寄存器中。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>slti rt</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF4F4F4F"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF4F4F4F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>rs</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF4F4F4F"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF4F4F4F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>immediate</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16位立即数进行符号扩展</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>001011</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>指令作用为：rt ←（rs &lt;（sign_extended）immediate），将指令中的16位立即数进行符号扩展，与地址为rs的通用寄存器的值按照无符号数进行比较，如果前者大于后者，那么将1保存到地址为rt的通用寄存器中；反之，将0保存到地址为rt的通用寄存器中。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>sltiu rt</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF4F4F4F"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF4F4F4F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>rs</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF4F4F4F"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF4F4F4F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>immediate</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类似I型指令</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>00000[regimm]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>if rs&lt;0 then branch，如果地址为rs的通用寄存器的值小于0，那么发生转移。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bltz rs，offset</t>
+  </si>
+  <si>
+    <t>rs值小于零则转移</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16位立即数左移两位后进行符号扩展，作为跳转地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100011</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>指令作用为：从内存中指定的加载地址处，读取一个字，保存到地址为rt的通用寄存器中。该指令有地址对齐要求，要求加载地址的最低两位为00。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lw rt，offset（base）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>base</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[15:0]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16位立即数进行符号扩展,然后与base寄存器中的值相加，得到数据内存地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地址最低两位必须为“00”，否则报错</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>101011</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>指令作用为：将地址为rt的通用寄存器的值存储到内存中的指定地址。该指令有地址对齐要求，要求计算出来的存储地址的最低两位为00。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sw rt，offset（base）</t>
+  </si>
+  <si>
+    <t>000011</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pc ←（pc+4）[31，28]||target||‘00’，转移到新的指令地址，新指令地址与指令j相同，不再解释。但是，指令jal还要将跳转指令后面第2条指令的地址作为返回地址保存到寄存器$31。</t>
+  </si>
+  <si>
+    <t>jal target</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[25:0]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>左移两位后与延迟槽pc最高四位拼接</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类似R型指令</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>011001[special]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>指令作用为：{hi，lo} ← rs×rt，将地址为rs的通用寄存器的值与地址为rt的通用寄存器的值作为无符号数相乘，乘法结果的低32bit保存到LO寄存器中，高32bit保存到HI寄存器中。与mult指令的区别在于：multu指令执行中将操作数作为无符号数进行运算。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>multu rs，st</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>涉及到返回地址保存在$31,即RA寄存器之中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无符号相乘，结果高32bits保存在HI($)寄存器中，低32bits保存在LO($)寄存器中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -279,6 +552,26 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF4F4F4F"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF4F4F4F"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color rgb="FF4F4F4F"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="9">
@@ -345,7 +638,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -391,9 +684,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -408,6 +698,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -730,8 +1029,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26AA0B03-95AC-43D3-B9AF-D26D1BAC32DE}">
   <dimension ref="A1:X28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -750,83 +1049,83 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="41.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
-      <c r="K1" s="16"/>
-      <c r="L1" s="16"/>
-      <c r="M1" s="16"/>
-      <c r="N1" s="16"/>
-      <c r="O1" s="16"/>
-      <c r="P1" s="16"/>
-      <c r="Q1" s="16"/>
-      <c r="R1" s="16"/>
-      <c r="S1" s="16"/>
-      <c r="T1" s="16"/>
-      <c r="U1" s="16"/>
-      <c r="V1" s="16"/>
-      <c r="W1" s="16"/>
-      <c r="X1" s="16"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="15"/>
+      <c r="M1" s="15"/>
+      <c r="N1" s="15"/>
+      <c r="O1" s="15"/>
+      <c r="P1" s="15"/>
+      <c r="Q1" s="15"/>
+      <c r="R1" s="15"/>
+      <c r="S1" s="15"/>
+      <c r="T1" s="15"/>
+      <c r="U1" s="15"/>
+      <c r="V1" s="15"/>
+      <c r="W1" s="15"/>
+      <c r="X1" s="15"/>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="C2" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="D2" s="18" t="s">
+      <c r="D2" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="17" t="s">
+      <c r="E2" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="18" t="s">
+      <c r="F2" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="18"/>
-      <c r="K2" s="18"/>
-      <c r="L2" s="17" t="s">
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="17"/>
+      <c r="L2" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="M2" s="17"/>
-      <c r="N2" s="18" t="s">
+      <c r="M2" s="16"/>
+      <c r="N2" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="O2" s="20" t="s">
+      <c r="O2" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="P2" s="20"/>
-      <c r="Q2" s="20"/>
-      <c r="R2" s="20"/>
-      <c r="S2" s="20"/>
-      <c r="T2" s="20"/>
-      <c r="U2" s="20"/>
-      <c r="V2" s="20"/>
-      <c r="W2" s="20"/>
-      <c r="X2" s="20"/>
+      <c r="P2" s="19"/>
+      <c r="Q2" s="19"/>
+      <c r="R2" s="19"/>
+      <c r="S2" s="19"/>
+      <c r="T2" s="19"/>
+      <c r="U2" s="19"/>
+      <c r="V2" s="19"/>
+      <c r="W2" s="19"/>
+      <c r="X2" s="19"/>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A3" s="17"/>
-      <c r="B3" s="18"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="17"/>
+      <c r="A3" s="16"/>
+      <c r="B3" s="17"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="16"/>
       <c r="F3" s="5" t="s">
         <v>12</v>
       </c>
@@ -851,7 +1150,7 @@
       <c r="M3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="N3" s="18"/>
+      <c r="N3" s="17"/>
     </row>
     <row r="4" spans="1:24" ht="112.2" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
@@ -923,167 +1222,349 @@
       </c>
       <c r="N5" s="8"/>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:24" ht="91.8" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
-      <c r="K6" s="8"/>
+      <c r="B6" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="I6" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="J6" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="K6" s="8" t="s">
+        <v>51</v>
+      </c>
       <c r="L6" s="8"/>
       <c r="M6" s="11"/>
-      <c r="N6" s="8"/>
-    </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="N6" s="8" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" ht="91.8" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="8"/>
+      <c r="B7" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="I7" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="J7" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="K7" s="8" t="s">
+        <v>51</v>
+      </c>
       <c r="L7" s="8"/>
       <c r="M7" s="11"/>
-      <c r="N7" s="8"/>
-    </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="N7" s="8" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" ht="102" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
+      <c r="B8" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="E8" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="I8" s="8" t="s">
+        <v>21</v>
+      </c>
       <c r="J8" s="8"/>
       <c r="K8" s="8"/>
-      <c r="L8" s="8"/>
-      <c r="M8" s="11"/>
-      <c r="N8" s="8"/>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="L8" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="M8" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="N8" s="8" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" ht="102" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
+      <c r="B9" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="D9" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="E9" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="H9" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="I9" s="8" t="s">
+        <v>21</v>
+      </c>
       <c r="J9" s="8"/>
       <c r="K9" s="8"/>
-      <c r="L9" s="8"/>
-      <c r="M9" s="11"/>
-      <c r="N9" s="8"/>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="L9" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="M9" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="N9" s="8" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="15"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
+      <c r="B10" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="E10" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>49</v>
+      </c>
       <c r="H10" s="8"/>
       <c r="I10" s="8"/>
       <c r="J10" s="8"/>
       <c r="K10" s="8"/>
-      <c r="L10" s="8"/>
-      <c r="M10" s="11"/>
-      <c r="N10" s="8"/>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="L10" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="M10" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="N10" s="8" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" ht="61.2" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="8"/>
+      <c r="B11" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="H11" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="I11" s="8" t="s">
+        <v>49</v>
+      </c>
       <c r="J11" s="8"/>
       <c r="K11" s="8"/>
-      <c r="L11" s="8"/>
-      <c r="M11" s="11"/>
-      <c r="N11" s="8"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="L11" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="M11" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="N11" s="11" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" ht="61.2" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="8"/>
+      <c r="B12" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="E12" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="H12" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="I12" s="8" t="s">
+        <v>49</v>
+      </c>
       <c r="J12" s="8"/>
       <c r="K12" s="8"/>
-      <c r="L12" s="8"/>
-      <c r="M12" s="11"/>
-      <c r="N12" s="8"/>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="L12" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="M12" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="N12" s="11" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" ht="81.599999999999994" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="8"/>
+      <c r="B13" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="D13" s="22" t="s">
+        <v>83</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>84</v>
+      </c>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c r="H13" s="8"/>
       <c r="I13" s="8"/>
       <c r="J13" s="8"/>
       <c r="K13" s="8"/>
-      <c r="L13" s="8"/>
-      <c r="M13" s="11"/>
-      <c r="N13" s="8"/>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="L13" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="M13" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="N13" s="11" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" ht="102" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="8"/>
+      <c r="B14" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="D14" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="H14" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="I14" s="8" t="s">
+        <v>51</v>
+      </c>
       <c r="J14" s="8"/>
       <c r="K14" s="8"/>
       <c r="L14" s="8"/>
       <c r="M14" s="11"/>
-      <c r="N14" s="8"/>
+      <c r="N14" s="11" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A15" s="8"/>
